--- a/src/test/resources/Exceldata/Data1.xlsx
+++ b/src/test/resources/Exceldata/Data1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\SprintPracto\Practo\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A306663-2983-4A45-8388-E0B231D02F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DB9553-1C3C-4769-95EF-9E62DB7A7253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9011211C-3E11-4E0E-9799-B95214BA7994}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{9011211C-3E11-4E0E-9799-B95214BA7994}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Hospital</t>
   </si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>Eye Specialist</t>
+  </si>
+  <si>
+    <t>hosedfgfg</t>
   </si>
 </sst>
 </file>
@@ -418,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9C9401-0672-46A8-ABE1-803804BB1963}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -447,6 +451,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6942F7-1D00-485F-BEE8-B1B0E4AD7042}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{76a2ae5a-9f00-4f6b-95ed-5d33d77c4d61}" enabled="0" method="" siteId="{76a2ae5a-9f00-4f6b-95ed-5d33d77c4d61}" removed="1"/>
